--- a/W2V-CI/Figures.xlsx
+++ b/W2V-CI/Figures.xlsx
@@ -4829,8 +4829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/W2V-CI/Figures.xlsx
+++ b/W2V-CI/Figures.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="0" windowWidth="21200" windowHeight="15300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2940" yWindow="660" windowWidth="21200" windowHeight="15300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,11 +379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070649856"/>
-        <c:axId val="-2064916464"/>
+        <c:axId val="880857984"/>
+        <c:axId val="880860304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070649856"/>
+        <c:axId val="880857984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064916464"/>
+        <c:crossAx val="880860304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -413,7 +413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064916464"/>
+        <c:axId val="880860304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070649856"/>
+        <c:crossAx val="880857984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -640,11 +640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2064902160"/>
-        <c:axId val="-2064889488"/>
+        <c:axId val="880887888"/>
+        <c:axId val="880890640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2064902160"/>
+        <c:axId val="880887888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064889488"/>
+        <c:crossAx val="880890640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064889488"/>
+        <c:axId val="880890640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064902160"/>
+        <c:crossAx val="880887888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,6 +712,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -889,11 +894,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2064883264"/>
-        <c:axId val="-2064880944"/>
+        <c:axId val="880922512"/>
+        <c:axId val="880925264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2064883264"/>
+        <c:axId val="880922512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064880944"/>
+        <c:crossAx val="880925264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -911,7 +916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064880944"/>
+        <c:axId val="880925264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064883264"/>
+        <c:crossAx val="880922512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1124,11 +1129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2067188768"/>
-        <c:axId val="-2067186448"/>
+        <c:axId val="846353552"/>
+        <c:axId val="846356304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067188768"/>
+        <c:axId val="846353552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067186448"/>
+        <c:crossAx val="846356304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067186448"/>
+        <c:axId val="846356304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067188768"/>
+        <c:crossAx val="846353552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,11 +1421,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2036140464"/>
-        <c:axId val="-2036138144"/>
+        <c:axId val="880935664"/>
+        <c:axId val="880938416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2036140464"/>
+        <c:axId val="880935664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036138144"/>
+        <c:crossAx val="880938416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1471,7 +1476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036138144"/>
+        <c:axId val="880938416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036140464"/>
+        <c:crossAx val="880935664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,11 +1831,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2033789584"/>
-        <c:axId val="-2033787104"/>
+        <c:axId val="880970112"/>
+        <c:axId val="880972864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2033789584"/>
+        <c:axId val="880970112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033787104"/>
+        <c:crossAx val="880972864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1881,7 +1886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2033787104"/>
+        <c:axId val="880972864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2033789584"/>
+        <c:crossAx val="880970112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2231,11 +2236,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2066467008"/>
-        <c:axId val="-2036633040"/>
+        <c:axId val="804545472"/>
+        <c:axId val="804539456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066467008"/>
+        <c:axId val="804545472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036633040"/>
+        <c:crossAx val="804539456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2286,7 +2291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036633040"/>
+        <c:axId val="804539456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066467008"/>
+        <c:crossAx val="804545472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4210,16 +4215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4596,7 +4601,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4724,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4829,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
